--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -12,7 +12,6 @@
     <sheet name="lakearea" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -969,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1025,7 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="D3">
-        <f>B3*(A3-A2)</f>
+        <f>D2+B3*(A3-A2)</f>
         <v>4834830.000001099</v>
       </c>
       <c r="E3">
@@ -1045,8 +1044,8 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">B4*(A4-A3)</f>
-        <v>4839664.830001099</v>
+        <f t="shared" ref="D4:D67" si="1">D3+B4*(A4-A3)</f>
+        <v>9674494.830002198</v>
       </c>
       <c r="E4">
         <v>220</v>
@@ -1065,7 +1064,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4844504.4948255923</v>
+        <v>14518999.32482779</v>
       </c>
       <c r="E5">
         <v>230</v>
@@ -1084,7 +1083,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>4849348.9993259301</v>
+        <v>19368348.324153721</v>
       </c>
       <c r="E6">
         <v>240</v>
@@ -1103,7 +1102,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>4854198.3483252563</v>
+        <v>24222546.672478978</v>
       </c>
       <c r="E7">
         <v>250</v>
@@ -1122,7 +1121,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>4859052.5466735801</v>
+        <v>29081599.219152559</v>
       </c>
       <c r="E8">
         <v>260</v>
@@ -1141,7 +1140,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>4863911.5992202526</v>
+        <v>33945510.818372808</v>
       </c>
       <c r="E9">
         <v>270</v>
@@ -1160,7 +1159,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4868775.5108139375</v>
+        <v>38814286.329186745</v>
       </c>
       <c r="E10">
         <v>280</v>
@@ -1179,7 +1178,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>4873644.286330292</v>
+        <v>43687930.615517035</v>
       </c>
       <c r="E11">
         <v>290</v>
@@ -1198,7 +1197,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4878517.9306166219</v>
+        <v>48566448.54613366</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -1217,7 +1216,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4883396.4485472376</v>
+        <v>53449844.994680896</v>
       </c>
       <c r="E13">
         <v>320</v>
@@ -1236,7 +1235,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>4888279.8449957846</v>
+        <v>58338124.839676678</v>
       </c>
       <c r="E14">
         <v>340</v>
@@ -1255,7 +1254,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4893168.1248352174</v>
+        <v>63231292.964511894</v>
       </c>
       <c r="E15">
         <v>360</v>
@@ -1274,7 +1273,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>4898061.2929656198</v>
+        <v>68129354.257477507</v>
       </c>
       <c r="E16">
         <v>380</v>
@@ -1293,7 +1292,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>4902959.3542585848</v>
+        <v>73032313.611736089</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -1312,7 +1311,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>4907862.3136128429</v>
+        <v>77940175.925348938</v>
       </c>
       <c r="E18">
         <v>420</v>
@@ -1331,7 +1330,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>4912770.1759264553</v>
+        <v>82852946.101275399</v>
       </c>
       <c r="E19">
         <v>440</v>
@@ -1350,7 +1349,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>4917682.946096791</v>
+        <v>87770629.047372192</v>
       </c>
       <c r="E20">
         <v>460</v>
@@ -1369,7 +1368,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>4922600.6290484834</v>
+        <v>92693229.676420674</v>
       </c>
       <c r="E21">
         <v>480</v>
@@ -1388,7 +1387,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>4932445.8303065803</v>
+        <v>97625675.506727248</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -1407,7 +1406,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>4942310.7219671933</v>
+        <v>102567986.22869444</v>
       </c>
       <c r="E23">
         <v>520</v>
@@ -1426,7 +1425,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4952195.3434561677</v>
+        <v>107520181.5721506</v>
       </c>
       <c r="E24">
         <v>540</v>
@@ -1445,7 +1444,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>4962099.7340979492</v>
+        <v>112482281.30624855</v>
       </c>
       <c r="E25">
         <v>560</v>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>4972023.9335661456</v>
+        <v>117454305.2398147</v>
       </c>
       <c r="E26">
         <v>580</v>
@@ -1483,7 +1482,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>4981967.9814332779</v>
+        <v>122436273.22124797</v>
       </c>
       <c r="E27">
         <v>600</v>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>4991931.917396144</v>
+        <v>127428205.13864411</v>
       </c>
       <c r="E28">
         <v>620</v>
@@ -1521,7 +1520,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>5001915.7812252501</v>
+        <v>132430120.91986936</v>
       </c>
       <c r="E29">
         <v>640</v>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>5011919.6127933981</v>
+        <v>137442040.53266275</v>
       </c>
       <c r="E30">
         <v>660</v>
@@ -1559,7 +1558,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>5021943.4520189846</v>
+        <v>142463983.98468173</v>
       </c>
       <c r="E31">
         <v>680</v>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>5031987.3389230231</v>
+        <v>147495971.32360476</v>
       </c>
       <c r="E32">
         <v>700</v>
@@ -1597,7 +1596,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>5042051.3136008689</v>
+        <v>152538022.63720563</v>
       </c>
       <c r="E33">
         <v>750</v>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>5052135.4162223265</v>
+        <v>157590158.05342796</v>
       </c>
       <c r="E34">
         <v>800</v>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>5062239.6870605256</v>
+        <v>162652397.7404885</v>
       </c>
       <c r="E35">
         <v>850</v>
@@ -1654,7 +1653,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>5072364.1664346475</v>
+        <v>167724761.90692315</v>
       </c>
       <c r="E36">
         <v>900</v>
@@ -1673,7 +1672,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>5082508.8947675163</v>
+        <v>172807270.80169067</v>
       </c>
       <c r="E37">
         <v>950</v>
@@ -1692,7 +1691,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>5092673.9125570515</v>
+        <v>177899944.71424773</v>
       </c>
       <c r="E38">
         <v>1000</v>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>5102859.260376364</v>
+        <v>183002803.9746241</v>
       </c>
       <c r="E39">
         <v>1050</v>
@@ -1730,7 +1729,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>5113064.9789029295</v>
+        <v>188115868.95352703</v>
       </c>
       <c r="E40">
         <v>1100</v>
@@ -1749,7 +1748,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>5123291.1088607349</v>
+        <v>193239160.06238776</v>
       </c>
       <c r="E41">
         <v>1150</v>
@@ -1768,7 +1767,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>5133537.6910784571</v>
+        <v>198372697.75346622</v>
       </c>
       <c r="E42">
         <v>1200</v>
@@ -1787,7 +1786,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>5143804.7664606133</v>
+        <v>203516502.51992685</v>
       </c>
       <c r="E43">
         <v>1250</v>
@@ -1806,7 +1805,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>5154092.375987675</v>
+        <v>208670594.89591452</v>
       </c>
       <c r="E44">
         <v>1300</v>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>5164400.5607455214</v>
+        <v>213834995.45666003</v>
       </c>
       <c r="E45">
         <v>1350</v>
@@ -1844,7 +1843,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>5174729.3618670134</v>
+        <v>219009724.81852704</v>
       </c>
       <c r="E46">
         <v>1400</v>
@@ -1863,7 +1862,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>5185078.8205907466</v>
+        <v>224194803.63911778</v>
       </c>
       <c r="E47">
         <v>1400</v>
@@ -1882,7 +1881,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>5195448.9782319283</v>
+        <v>229390252.61734971</v>
       </c>
       <c r="E48">
         <v>1400</v>
@@ -1901,7 +1900,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>5205839.8761824733</v>
+        <v>234596092.49353218</v>
       </c>
       <c r="E49">
         <v>1400</v>
@@ -1913,14 +1912,14 @@
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>52110457.160633951</v>
+        <v>52214573.958157696</v>
       </c>
       <c r="C50">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>5211045.7160645798</v>
+        <v>239817549.88934913</v>
       </c>
       <c r="E50">
         <v>1400</v>
@@ -1932,14 +1931,14 @@
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>52162567.617794581</v>
+        <v>52371217.680032164</v>
       </c>
       <c r="C51">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>5216256.7617806438</v>
+        <v>245054671.65735355</v>
       </c>
       <c r="E51">
         <v>1400</v>
@@ -1951,14 +1950,14 @@
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>52214730.18541237</v>
+        <v>52528331.333072253</v>
       </c>
       <c r="C52">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>5221473.0185424238</v>
+        <v>250307504.79066196</v>
       </c>
       <c r="E52">
         <v>1400</v>
@@ -1970,14 +1969,14 @@
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
-        <v>52266944.915597774</v>
+        <v>52685916.327071466</v>
       </c>
       <c r="C53">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>5226694.4915609658</v>
+        <v>255576096.4233703</v>
       </c>
       <c r="E53">
         <v>1400</v>
@@ -1989,14 +1988,14 @@
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
-        <v>52319211.860513367</v>
+        <v>52843974.076052673</v>
       </c>
       <c r="C54">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>5231921.186046578</v>
+        <v>260860493.83097076</v>
       </c>
       <c r="E54">
         <v>1400</v>
@@ -2008,14 +2007,14 @@
       </c>
       <c r="B55">
         <f t="shared" si="2"/>
-        <v>52371531.072373874</v>
+        <v>53002505.998280823</v>
       </c>
       <c r="C55">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>5237153.1072385786</v>
+        <v>266160744.43080005</v>
       </c>
       <c r="E55">
         <v>1400</v>
@@ -2027,14 +2026,14 @@
       </c>
       <c r="B56">
         <f t="shared" si="2"/>
-        <v>52423902.603446245</v>
+        <v>53161513.516275659</v>
       </c>
       <c r="C56">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>5242390.2603458166</v>
+        <v>271476895.7824288</v>
       </c>
       <c r="E56">
         <v>1400</v>
@@ -2046,14 +2045,14 @@
       </c>
       <c r="B57">
         <f t="shared" si="2"/>
-        <v>52476326.506049685</v>
+        <v>53320998.056824483</v>
       </c>
       <c r="C57">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>5247632.6506061619</v>
+        <v>276808995.58811247</v>
       </c>
       <c r="E57">
         <v>1400</v>
@@ -2065,14 +2064,14 @@
       </c>
       <c r="B58">
         <f t="shared" si="2"/>
-        <v>52528802.832555726</v>
+        <v>53480961.050994948</v>
       </c>
       <c r="C58">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>5252880.2832567673</v>
+        <v>282157091.69321316</v>
       </c>
       <c r="E58">
         <v>1400</v>
@@ -2084,14 +2083,14 @@
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
-        <v>52581331.635388277</v>
+        <v>53641403.934147924</v>
       </c>
       <c r="C59">
-        <v>1.0009999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>5258133.1635340452</v>
+        <v>287521232.08662307</v>
       </c>
       <c r="E59">
         <v>1400</v>
@@ -2103,14 +2102,14 @@
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
-        <v>52633912.967023663</v>
+        <v>53855969.549884513</v>
       </c>
       <c r="C60">
-        <v>1.0009999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>5263391.2967035631</v>
+        <v>292906829.04161274</v>
       </c>
       <c r="E60">
         <v>1400</v>
@@ -2122,14 +2121,14 @@
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
-        <v>52686546.879990682</v>
+        <v>54071393.428084053</v>
       </c>
       <c r="C61">
-        <v>1.0009999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>5268654.6880002664</v>
+        <v>298313968.38442236</v>
       </c>
       <c r="E61">
         <v>1400</v>
@@ -2141,14 +2140,14 @@
       </c>
       <c r="B62">
         <f t="shared" si="2"/>
-        <v>52739233.426870666</v>
+        <v>54287679.001796387</v>
       </c>
       <c r="C62">
-        <v>1.0009999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>5273923.3426882662</v>
+        <v>303742736.28460324</v>
       </c>
       <c r="E62">
         <v>1400</v>
@@ -2160,14 +2159,14 @@
       </c>
       <c r="B63">
         <f t="shared" si="2"/>
-        <v>52791972.660297528</v>
+        <v>54613405.075807169</v>
       </c>
       <c r="C63">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>5279197.2660309533</v>
+        <v>309204076.79218519</v>
       </c>
       <c r="E63">
         <v>1400</v>
@@ -2179,14 +2178,14 @@
       </c>
       <c r="B64">
         <f t="shared" si="2"/>
-        <v>52844764.632957816</v>
+        <v>54941085.506262012</v>
       </c>
       <c r="C64">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>5284476.4632909754</v>
+        <v>314698185.3428064</v>
       </c>
       <c r="E64">
         <v>1400</v>
@@ -2198,14 +2197,14 @@
       </c>
       <c r="B65">
         <f t="shared" si="2"/>
-        <v>52897609.397590771</v>
+        <v>55270732.019299582</v>
       </c>
       <c r="C65">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>5289760.9397602798</v>
+        <v>320225258.54473764</v>
       </c>
       <c r="E65">
         <v>1400</v>
@@ -2217,14 +2216,14 @@
       </c>
       <c r="B66">
         <f t="shared" si="2"/>
-        <v>52950507.006988354</v>
+        <v>55602356.411415376</v>
       </c>
       <c r="C66">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>5295050.700700039</v>
+        <v>325785494.18588042</v>
       </c>
       <c r="E66">
         <v>1400</v>
@@ -2236,14 +2235,14 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B72" si="3">B66*C67</f>
-        <v>53003457.513995335</v>
+        <v>55935970.549883865</v>
       </c>
       <c r="C67">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>5300345.751400739</v>
+        <v>331379091.24087006</v>
       </c>
       <c r="E67">
         <v>1400</v>
@@ -2255,14 +2254,14 @@
       </c>
       <c r="B68">
         <f t="shared" si="3"/>
-        <v>53056460.971509323</v>
+        <v>56271586.373183168</v>
       </c>
       <c r="C68">
-        <v>1.0009999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D72" si="4">B68*(A68-A67)</f>
-        <v>5305646.0972003927</v>
+        <f t="shared" ref="D68:D72" si="4">D67+B68*(A68-A67)</f>
+        <v>337006249.87824082</v>
       </c>
       <c r="E68">
         <v>1400</v>
@@ -2274,14 +2273,14 @@
       </c>
       <c r="B69">
         <f t="shared" si="3"/>
-        <v>53109517.432480827</v>
+        <v>56834302.236915</v>
       </c>
       <c r="C69">
-        <v>1.0009999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>5310951.7432492906</v>
+        <v>342689680.1019336</v>
       </c>
       <c r="E69">
         <v>1400</v>
@@ -2293,14 +2292,14 @@
       </c>
       <c r="B70">
         <f t="shared" si="3"/>
-        <v>53162626.949913301</v>
+        <v>57970988.2816533</v>
       </c>
       <c r="C70">
-        <v>1.0009999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>5316262.6949925385</v>
+        <v>348486778.93010026</v>
       </c>
       <c r="E70">
         <v>1400</v>
@@ -2312,14 +2311,14 @@
       </c>
       <c r="B71">
         <f t="shared" si="3"/>
-        <v>53215789.576863207</v>
+        <v>59710117.9301029</v>
       </c>
       <c r="C71">
-        <v>1.0009999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>5321578.9576875307</v>
+        <v>354457790.72311193</v>
       </c>
       <c r="E71">
         <v>1400</v>
@@ -2331,14 +2330,14 @@
       </c>
       <c r="B72">
         <f t="shared" si="3"/>
-        <v>53269005.366440065</v>
+        <v>62098522.647307016</v>
       </c>
       <c r="C72">
-        <v>1.0009999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>5326900.5366452178</v>
+        <v>360667642.98784405</v>
       </c>
       <c r="E72">
         <v>1400</v>

--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -966,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,1005 +997,1005 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>582.20000000000005</v>
+      </c>
+      <c r="B2">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D8" si="0">D3-(A3-A2)*B2</f>
+        <v>-38639999.999997802</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>582.29999999999995</v>
+      </c>
+      <c r="B3">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-33810000.000002198</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>582.4</v>
+      </c>
+      <c r="B4">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-28980000.000001099</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>582.5</v>
+      </c>
+      <c r="B5">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-24150000</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>582.6</v>
+      </c>
+      <c r="B6">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-19319999.999998901</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="B7">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-14489999.999997802</v>
+      </c>
+      <c r="E7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>582.79999999999995</v>
+      </c>
+      <c r="B8">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-9660000.0000021961</v>
+      </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>582.9</v>
+      </c>
+      <c r="B9">
+        <f>lakearea!$A$2</f>
+        <v>48300000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>D10-(A10-A9)*B9</f>
+        <v>-4830000.000001098</v>
+      </c>
+      <c r="E9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>583</v>
       </c>
-      <c r="B2">
+      <c r="B10">
         <f>lakearea!A2</f>
         <v>48300000</v>
       </c>
-      <c r="C2">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>583.1</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B34" si="0">B2*C3</f>
-        <v>48348299.999999993</v>
-      </c>
-      <c r="C3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D3">
-        <f>D2+B3*(A3-A2)</f>
-        <v>4834830.000001099</v>
-      </c>
-      <c r="E3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>583.20000000000005</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>48396648.29999999</v>
-      </c>
-      <c r="C4">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">D3+B4*(A4-A3)</f>
-        <v>9674494.830002198</v>
-      </c>
-      <c r="E4">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>583.29999999999995</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>48445044.948299982</v>
-      </c>
-      <c r="C5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>14518999.32482779</v>
-      </c>
-      <c r="E5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>583.4</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>48493489.993248276</v>
-      </c>
-      <c r="C6">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>19368348.324153721</v>
-      </c>
-      <c r="E6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>583.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>48541983.483241521</v>
-      </c>
-      <c r="C7">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>24222546.672478978</v>
-      </c>
-      <c r="E7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>583.6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>48590525.466724753</v>
-      </c>
-      <c r="C8">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>29081599.219152559</v>
-      </c>
-      <c r="E8">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>583.70000000000005</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>48639115.992191471</v>
-      </c>
-      <c r="C9">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>33945510.818372808</v>
-      </c>
-      <c r="E9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>583.79999999999995</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>48687755.10818366</v>
-      </c>
       <c r="C10">
         <v>1.0009999999999999</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>38814286.329186745</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>583.9</v>
+        <v>583.1</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>48736442.863291837</v>
+        <f t="shared" ref="B11:B42" si="1">B10*C11</f>
+        <v>48348299.999999993</v>
       </c>
       <c r="C11">
         <v>1.0009999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>43687930.615517035</v>
+        <f t="shared" ref="D3:D12" si="2">D10+B11*(A11-A10)</f>
+        <v>4834830.000001099</v>
       </c>
       <c r="E11">
-        <v>290</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>584</v>
+        <v>583.20000000000005</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>48785179.306155123</v>
+        <f t="shared" si="1"/>
+        <v>48396648.29999999</v>
       </c>
       <c r="C12">
         <v>1.0009999999999999</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>48566448.54613366</v>
+        <f t="shared" si="2"/>
+        <v>9674494.830002198</v>
       </c>
       <c r="E12">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>584.1</v>
+        <v>583.29999999999995</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>48833964.485461272</v>
+        <f t="shared" si="1"/>
+        <v>48445044.948299982</v>
       </c>
       <c r="C13">
         <v>1.0009999999999999</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>53449844.994680896</v>
+        <f t="shared" ref="D13:D75" si="3">D12+B13*(A13-A12)</f>
+        <v>14518999.32482779</v>
       </c>
       <c r="E13">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>584.20000000000005</v>
+        <v>583.4</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>48882798.449946731</v>
+        <f t="shared" si="1"/>
+        <v>48493489.993248276</v>
       </c>
       <c r="C14">
         <v>1.0009999999999999</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>58338124.839676678</v>
+        <f t="shared" si="3"/>
+        <v>19368348.324153721</v>
       </c>
       <c r="E14">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>584.29999999999995</v>
+        <v>583.5</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>48931681.248396672</v>
+        <f t="shared" si="1"/>
+        <v>48541983.483241521</v>
       </c>
       <c r="C15">
         <v>1.0009999999999999</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
-        <v>63231292.964511894</v>
+        <f t="shared" si="3"/>
+        <v>24222546.672478978</v>
       </c>
       <c r="E15">
-        <v>360</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>584.4</v>
+        <v>583.6</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>48980612.929645061</v>
+        <f t="shared" si="1"/>
+        <v>48590525.466724753</v>
       </c>
       <c r="C16">
         <v>1.0009999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
-        <v>68129354.257477507</v>
+        <f t="shared" si="3"/>
+        <v>29081599.219152559</v>
       </c>
       <c r="E16">
-        <v>380</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>584.5</v>
+        <v>583.70000000000005</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>49029593.542574704</v>
+        <f t="shared" si="1"/>
+        <v>48639115.992191471</v>
       </c>
       <c r="C17">
         <v>1.0009999999999999</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
-        <v>73032313.611736089</v>
+        <f t="shared" si="3"/>
+        <v>33945510.818372808</v>
       </c>
       <c r="E17">
-        <v>400</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>584.6</v>
+        <v>583.79999999999995</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>49078623.136117272</v>
+        <f t="shared" si="1"/>
+        <v>48687755.10818366</v>
       </c>
       <c r="C18">
         <v>1.0009999999999999</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>77940175.925348938</v>
+        <f t="shared" si="3"/>
+        <v>38814286.329186745</v>
       </c>
       <c r="E18">
-        <v>420</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>584.70000000000005</v>
+        <v>583.9</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>49127701.759253383</v>
+        <f t="shared" si="1"/>
+        <v>48736442.863291837</v>
       </c>
       <c r="C19">
         <v>1.0009999999999999</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
-        <v>82852946.101275399</v>
+        <f t="shared" si="3"/>
+        <v>43687930.615517035</v>
       </c>
       <c r="E19">
-        <v>440</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>584.79999999999995</v>
+        <v>584</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>49176829.461012632</v>
+        <f t="shared" si="1"/>
+        <v>48785179.306155123</v>
       </c>
       <c r="C20">
         <v>1.0009999999999999</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
-        <v>87770629.047372192</v>
+        <f t="shared" si="3"/>
+        <v>48566448.54613366</v>
       </c>
       <c r="E20">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>584.9</v>
+        <v>584.1</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>49226006.29047364</v>
+        <f t="shared" si="1"/>
+        <v>48833964.485461272</v>
       </c>
       <c r="C21">
         <v>1.0009999999999999</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>92693229.676420674</v>
+        <f t="shared" si="3"/>
+        <v>53449844.994680896</v>
       </c>
       <c r="E21">
-        <v>480</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>585</v>
+        <v>584.20000000000005</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>49324458.303054586</v>
+        <f t="shared" si="1"/>
+        <v>48882798.449946731</v>
       </c>
       <c r="C22">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>97625675.506727248</v>
+        <f t="shared" si="3"/>
+        <v>58338124.839676678</v>
       </c>
       <c r="E22">
-        <v>500</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>585.1</v>
+        <v>584.29999999999995</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>49423107.219660692</v>
+        <f t="shared" si="1"/>
+        <v>48931681.248396672</v>
       </c>
       <c r="C23">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>102567986.22869444</v>
+        <f t="shared" si="3"/>
+        <v>63231292.964511894</v>
       </c>
       <c r="E23">
-        <v>520</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>585.20000000000095</v>
+        <v>584.4</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>49521953.434100017</v>
+        <f t="shared" si="1"/>
+        <v>48980612.929645061</v>
       </c>
       <c r="C24">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>107520181.5721506</v>
+        <f t="shared" si="3"/>
+        <v>68129354.257477507</v>
       </c>
       <c r="E24">
-        <v>540</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>585.30000000000098</v>
+        <v>584.5</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>49620997.340968214</v>
+        <f t="shared" si="1"/>
+        <v>49029593.542574704</v>
       </c>
       <c r="C25">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>112482281.30624855</v>
+        <f t="shared" si="3"/>
+        <v>73032313.611736089</v>
       </c>
       <c r="E25">
-        <v>560</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>585.400000000001</v>
+        <v>584.6</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>49720239.335650153</v>
+        <f t="shared" si="1"/>
+        <v>49078623.136117272</v>
       </c>
       <c r="C26">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>117454305.2398147</v>
+        <f t="shared" si="3"/>
+        <v>77940175.925348938</v>
       </c>
       <c r="E26">
-        <v>580</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>585.50000000000102</v>
+        <v>584.70000000000005</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>49819679.814321451</v>
+        <f t="shared" si="1"/>
+        <v>49127701.759253383</v>
       </c>
       <c r="C27">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>122436273.22124797</v>
+        <f t="shared" si="3"/>
+        <v>82852946.101275399</v>
       </c>
       <c r="E27">
-        <v>600</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>585.60000000000105</v>
+        <v>584.79999999999995</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>49919319.173950091</v>
+        <f t="shared" si="1"/>
+        <v>49176829.461012632</v>
       </c>
       <c r="C28">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>127428205.13864411</v>
+        <f t="shared" si="3"/>
+        <v>87770629.047372192</v>
       </c>
       <c r="E28">
-        <v>620</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>585.70000000000095</v>
+        <v>584.9</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>50019157.812297992</v>
+        <f t="shared" si="1"/>
+        <v>49226006.29047364</v>
       </c>
       <c r="C29">
-        <v>1.002</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>132430120.91986936</v>
+        <f t="shared" si="3"/>
+        <v>92693229.676420674</v>
       </c>
       <c r="E29">
-        <v>640</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>585.80000000000098</v>
+        <v>585</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>50119196.127922587</v>
+        <f t="shared" si="1"/>
+        <v>49324458.303054586</v>
       </c>
       <c r="C30">
         <v>1.002</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>137442040.53266275</v>
+        <f t="shared" si="3"/>
+        <v>97625675.506727248</v>
       </c>
       <c r="E30">
-        <v>660</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>585.900000000001</v>
+        <v>585.1</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>50219434.52017843</v>
+        <f t="shared" si="1"/>
+        <v>49423107.219660692</v>
       </c>
       <c r="C31">
         <v>1.002</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>142463983.98468173</v>
+        <f t="shared" si="3"/>
+        <v>102567986.22869444</v>
       </c>
       <c r="E31">
-        <v>680</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>586.00000000000102</v>
+        <v>585.20000000000095</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>50319873.389218785</v>
+        <f t="shared" si="1"/>
+        <v>49521953.434100017</v>
       </c>
       <c r="C32">
         <v>1.002</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>147495971.32360476</v>
+        <f t="shared" si="3"/>
+        <v>107520181.5721506</v>
       </c>
       <c r="E32">
-        <v>700</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>586.10000000000105</v>
+        <v>585.30000000000098</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>50420513.135997221</v>
+        <f t="shared" si="1"/>
+        <v>49620997.340968214</v>
       </c>
       <c r="C33">
         <v>1.002</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>152538022.63720563</v>
+        <f t="shared" si="3"/>
+        <v>112482281.30624855</v>
       </c>
       <c r="E33">
-        <v>750</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>586.20000000000095</v>
+        <v>585.400000000001</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>50521354.162269212</v>
+        <f t="shared" si="1"/>
+        <v>49720239.335650153</v>
       </c>
       <c r="C34">
         <v>1.002</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>157590158.05342796</v>
+        <f t="shared" si="3"/>
+        <v>117454305.2398147</v>
       </c>
       <c r="E34">
-        <v>800</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>586.30000000000098</v>
+        <v>585.50000000000102</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:B66" si="2">B34*C35</f>
-        <v>50622396.870593749</v>
+        <f t="shared" si="1"/>
+        <v>49819679.814321451</v>
       </c>
       <c r="C35">
         <v>1.002</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>162652397.7404885</v>
+        <f t="shared" si="3"/>
+        <v>122436273.22124797</v>
       </c>
       <c r="E35">
-        <v>850</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>586.400000000001</v>
+        <v>585.60000000000105</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
-        <v>50723641.664334938</v>
+        <f t="shared" si="1"/>
+        <v>49919319.173950091</v>
       </c>
       <c r="C36">
         <v>1.002</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>167724761.90692315</v>
+        <f t="shared" si="3"/>
+        <v>127428205.13864411</v>
       </c>
       <c r="E36">
-        <v>900</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>586.50000000000102</v>
+        <v>585.70000000000095</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
-        <v>50825088.947663605</v>
+        <f t="shared" si="1"/>
+        <v>50019157.812297992</v>
       </c>
       <c r="C37">
         <v>1.002</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>172807270.80169067</v>
+        <f t="shared" si="3"/>
+        <v>132430120.91986936</v>
       </c>
       <c r="E37">
-        <v>950</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>586.60000000000105</v>
+        <v>585.80000000000098</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
-        <v>50926739.125558935</v>
+        <f t="shared" si="1"/>
+        <v>50119196.127922587</v>
       </c>
       <c r="C38">
         <v>1.002</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>177899944.71424773</v>
+        <f t="shared" si="3"/>
+        <v>137442040.53266275</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>586.70000000000095</v>
+        <v>585.900000000001</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
-        <v>51028592.60381005</v>
+        <f t="shared" si="1"/>
+        <v>50219434.52017843</v>
       </c>
       <c r="C39">
         <v>1.002</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>183002803.9746241</v>
+        <f t="shared" si="3"/>
+        <v>142463983.98468173</v>
       </c>
       <c r="E39">
-        <v>1050</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>586.80000000000098</v>
+        <v>586.00000000000102</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
-        <v>51130649.78901767</v>
+        <f t="shared" si="1"/>
+        <v>50319873.389218785</v>
       </c>
       <c r="C40">
         <v>1.002</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>188115868.95352703</v>
+        <f t="shared" si="3"/>
+        <v>147495971.32360476</v>
       </c>
       <c r="E40">
-        <v>1100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>586.900000000001</v>
+        <v>586.10000000000105</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
-        <v>51232911.088595703</v>
+        <f t="shared" si="1"/>
+        <v>50420513.135997221</v>
       </c>
       <c r="C41">
         <v>1.002</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>193239160.06238776</v>
+        <f t="shared" si="3"/>
+        <v>152538022.63720563</v>
       </c>
       <c r="E41">
-        <v>1150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>587.00000000000102</v>
+        <v>586.20000000000095</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
-        <v>51335376.910772897</v>
+        <f t="shared" si="1"/>
+        <v>50521354.162269212</v>
       </c>
       <c r="C42">
         <v>1.002</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
-        <v>198372697.75346622</v>
+        <f t="shared" si="3"/>
+        <v>157590158.05342796</v>
       </c>
       <c r="E42">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>587.10000000000105</v>
+        <v>586.30000000000098</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
-        <v>51438047.664594442</v>
+        <f t="shared" ref="B43:B74" si="4">B42*C43</f>
+        <v>50622396.870593749</v>
       </c>
       <c r="C43">
         <v>1.002</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
-        <v>203516502.51992685</v>
+        <f t="shared" si="3"/>
+        <v>162652397.7404885</v>
       </c>
       <c r="E43">
-        <v>1250</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>587.20000000000095</v>
+        <v>586.400000000001</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
-        <v>51540923.759923629</v>
+        <f t="shared" si="4"/>
+        <v>50723641.664334938</v>
       </c>
       <c r="C44">
         <v>1.002</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>208670594.89591452</v>
+        <f t="shared" si="3"/>
+        <v>167724761.90692315</v>
       </c>
       <c r="E44">
-        <v>1300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>587.30000000000098</v>
+        <v>586.50000000000102</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
-        <v>51644005.607443474</v>
+        <f t="shared" si="4"/>
+        <v>50825088.947663605</v>
       </c>
       <c r="C45">
         <v>1.002</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>213834995.45666003</v>
+        <f t="shared" si="3"/>
+        <v>172807270.80169067</v>
       </c>
       <c r="E45">
-        <v>1350</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>587.400000000001</v>
+        <v>586.60000000000105</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
-        <v>51747293.618658364</v>
+        <f t="shared" si="4"/>
+        <v>50926739.125558935</v>
       </c>
       <c r="C46">
         <v>1.002</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
-        <v>219009724.81852704</v>
+        <f t="shared" si="3"/>
+        <v>177899944.71424773</v>
       </c>
       <c r="E46">
-        <v>1400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>587.50000000000102</v>
+        <v>586.70000000000095</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
-        <v>51850788.205895677</v>
+        <f t="shared" si="4"/>
+        <v>51028592.60381005</v>
       </c>
       <c r="C47">
         <v>1.002</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>224194803.63911778</v>
+        <f t="shared" si="3"/>
+        <v>183002803.9746241</v>
       </c>
       <c r="E47">
-        <v>1400</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>587.60000000000105</v>
+        <v>586.80000000000098</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
-        <v>51954489.782307468</v>
+        <f t="shared" si="4"/>
+        <v>51130649.78901767</v>
       </c>
       <c r="C48">
         <v>1.002</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>229390252.61734971</v>
+        <f t="shared" si="3"/>
+        <v>188115868.95352703</v>
       </c>
       <c r="E48">
-        <v>1400</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>587.70000000000095</v>
+        <v>586.900000000001</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
-        <v>52058398.761872083</v>
+        <f t="shared" si="4"/>
+        <v>51232911.088595703</v>
       </c>
       <c r="C49">
         <v>1.002</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>234596092.49353218</v>
+        <f t="shared" si="3"/>
+        <v>193239160.06238776</v>
       </c>
       <c r="E49">
-        <v>1400</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>587.80000000000098</v>
+        <v>587.00000000000102</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
-        <v>52214573.958157696</v>
+        <f t="shared" si="4"/>
+        <v>51335376.910772897</v>
       </c>
       <c r="C50">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
-        <v>239817549.88934913</v>
+        <f t="shared" si="3"/>
+        <v>198372697.75346622</v>
       </c>
       <c r="E50">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>587.900000000001</v>
+        <v>587.10000000000105</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
-        <v>52371217.680032164</v>
+        <f t="shared" si="4"/>
+        <v>51438047.664594442</v>
       </c>
       <c r="C51">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
-        <v>245054671.65735355</v>
+        <f t="shared" si="3"/>
+        <v>203516502.51992685</v>
       </c>
       <c r="E51">
-        <v>1400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>588.00000000000102</v>
+        <v>587.20000000000095</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
-        <v>52528331.333072253</v>
+        <f t="shared" si="4"/>
+        <v>51540923.759923629</v>
       </c>
       <c r="C52">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>250307504.79066196</v>
+        <f t="shared" si="3"/>
+        <v>208670594.89591452</v>
       </c>
       <c r="E52">
-        <v>1400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>588.10000000000105</v>
+        <v>587.30000000000098</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
-        <v>52685916.327071466</v>
+        <f t="shared" si="4"/>
+        <v>51644005.607443474</v>
       </c>
       <c r="C53">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
-        <v>255576096.4233703</v>
+        <f t="shared" si="3"/>
+        <v>213834995.45666003</v>
       </c>
       <c r="E53">
-        <v>1400</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>588.20000000000095</v>
+        <v>587.400000000001</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
-        <v>52843974.076052673</v>
+        <f t="shared" si="4"/>
+        <v>51747293.618658364</v>
       </c>
       <c r="C54">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
-        <v>260860493.83097076</v>
+        <f t="shared" si="3"/>
+        <v>219009724.81852704</v>
       </c>
       <c r="E54">
         <v>1400</v>
@@ -2003,18 +2003,18 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>588.30000000000098</v>
+        <v>587.50000000000102</v>
       </c>
       <c r="B55">
-        <f t="shared" si="2"/>
-        <v>53002505.998280823</v>
+        <f t="shared" si="4"/>
+        <v>51850788.205895677</v>
       </c>
       <c r="C55">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
-        <v>266160744.43080005</v>
+        <f t="shared" si="3"/>
+        <v>224194803.63911778</v>
       </c>
       <c r="E55">
         <v>1400</v>
@@ -2022,18 +2022,18 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>588.400000000001</v>
+        <v>587.60000000000105</v>
       </c>
       <c r="B56">
-        <f t="shared" si="2"/>
-        <v>53161513.516275659</v>
+        <f t="shared" si="4"/>
+        <v>51954489.782307468</v>
       </c>
       <c r="C56">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
-        <v>271476895.7824288</v>
+        <f t="shared" si="3"/>
+        <v>229390252.61734971</v>
       </c>
       <c r="E56">
         <v>1400</v>
@@ -2041,18 +2041,18 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>588.50000000000102</v>
+        <v>587.70000000000095</v>
       </c>
       <c r="B57">
-        <f t="shared" si="2"/>
-        <v>53320998.056824483</v>
+        <f t="shared" si="4"/>
+        <v>52058398.761872083</v>
       </c>
       <c r="C57">
-        <v>1.0029999999999999</v>
+        <v>1.002</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>276808995.58811247</v>
+        <f t="shared" si="3"/>
+        <v>234596092.49353218</v>
       </c>
       <c r="E57">
         <v>1400</v>
@@ -2060,18 +2060,18 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>588.60000000000105</v>
+        <v>587.80000000000098</v>
       </c>
       <c r="B58">
-        <f t="shared" si="2"/>
-        <v>53480961.050994948</v>
+        <f t="shared" si="4"/>
+        <v>52214573.958157696</v>
       </c>
       <c r="C58">
         <v>1.0029999999999999</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
-        <v>282157091.69321316</v>
+        <f t="shared" si="3"/>
+        <v>239817549.88934913</v>
       </c>
       <c r="E58">
         <v>1400</v>
@@ -2079,18 +2079,18 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>588.70000000000095</v>
+        <v>587.900000000001</v>
       </c>
       <c r="B59">
-        <f t="shared" si="2"/>
-        <v>53641403.934147924</v>
+        <f t="shared" si="4"/>
+        <v>52371217.680032164</v>
       </c>
       <c r="C59">
         <v>1.0029999999999999</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
-        <v>287521232.08662307</v>
+        <f t="shared" si="3"/>
+        <v>245054671.65735355</v>
       </c>
       <c r="E59">
         <v>1400</v>
@@ -2098,18 +2098,18 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>588.80000000000098</v>
+        <v>588.00000000000102</v>
       </c>
       <c r="B60">
-        <f t="shared" si="2"/>
-        <v>53855969.549884513</v>
+        <f t="shared" si="4"/>
+        <v>52528331.333072253</v>
       </c>
       <c r="C60">
-        <v>1.004</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>292906829.04161274</v>
+        <f t="shared" si="3"/>
+        <v>250307504.79066196</v>
       </c>
       <c r="E60">
         <v>1400</v>
@@ -2117,18 +2117,18 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>588.900000000001</v>
+        <v>588.10000000000105</v>
       </c>
       <c r="B61">
-        <f t="shared" si="2"/>
-        <v>54071393.428084053</v>
+        <f t="shared" si="4"/>
+        <v>52685916.327071466</v>
       </c>
       <c r="C61">
-        <v>1.004</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
-        <v>298313968.38442236</v>
+        <f t="shared" si="3"/>
+        <v>255576096.4233703</v>
       </c>
       <c r="E61">
         <v>1400</v>
@@ -2136,18 +2136,18 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>589.00000000000102</v>
+        <v>588.20000000000095</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
-        <v>54287679.001796387</v>
+        <f t="shared" si="4"/>
+        <v>52843974.076052673</v>
       </c>
       <c r="C62">
-        <v>1.004</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
-        <v>303742736.28460324</v>
+        <f t="shared" si="3"/>
+        <v>260860493.83097076</v>
       </c>
       <c r="E62">
         <v>1400</v>
@@ -2155,18 +2155,18 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>589.10000000000105</v>
+        <v>588.30000000000098</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
-        <v>54613405.075807169</v>
+        <f t="shared" si="4"/>
+        <v>53002505.998280823</v>
       </c>
       <c r="C63">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
-        <v>309204076.79218519</v>
+        <f t="shared" si="3"/>
+        <v>266160744.43080005</v>
       </c>
       <c r="E63">
         <v>1400</v>
@@ -2174,18 +2174,18 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>589.20000000000095</v>
+        <v>588.400000000001</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
-        <v>54941085.506262012</v>
+        <f t="shared" si="4"/>
+        <v>53161513.516275659</v>
       </c>
       <c r="C64">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
-        <v>314698185.3428064</v>
+        <f t="shared" si="3"/>
+        <v>271476895.7824288</v>
       </c>
       <c r="E64">
         <v>1400</v>
@@ -2193,18 +2193,18 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>589.30000000000098</v>
+        <v>588.50000000000102</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
-        <v>55270732.019299582</v>
+        <f t="shared" si="4"/>
+        <v>53320998.056824483</v>
       </c>
       <c r="C65">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
-        <v>320225258.54473764</v>
+        <f t="shared" si="3"/>
+        <v>276808995.58811247</v>
       </c>
       <c r="E65">
         <v>1400</v>
@@ -2212,18 +2212,18 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>589.400000000001</v>
+        <v>588.60000000000105</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
-        <v>55602356.411415376</v>
+        <f t="shared" si="4"/>
+        <v>53480961.050994948</v>
       </c>
       <c r="C66">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
-        <v>325785494.18588042</v>
+        <f t="shared" si="3"/>
+        <v>282157091.69321316</v>
       </c>
       <c r="E66">
         <v>1400</v>
@@ -2231,18 +2231,18 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>589.50000000000102</v>
+        <v>588.70000000000095</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B72" si="3">B66*C67</f>
-        <v>55935970.549883865</v>
+        <f t="shared" si="4"/>
+        <v>53641403.934147924</v>
       </c>
       <c r="C67">
-        <v>1.006</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>331379091.24087006</v>
+        <f t="shared" si="3"/>
+        <v>287521232.08662307</v>
       </c>
       <c r="E67">
         <v>1400</v>
@@ -2250,18 +2250,18 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>589.60000000000196</v>
+        <v>588.80000000000098</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
-        <v>56271586.373183168</v>
+        <f t="shared" si="4"/>
+        <v>53855969.549884513</v>
       </c>
       <c r="C68">
-        <v>1.006</v>
+        <v>1.004</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D72" si="4">D67+B68*(A68-A67)</f>
-        <v>337006249.87824082</v>
+        <f t="shared" si="3"/>
+        <v>292906829.04161274</v>
       </c>
       <c r="E68">
         <v>1400</v>
@@ -2269,18 +2269,18 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>589.70000000000198</v>
+        <v>588.900000000001</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
-        <v>56834302.236915</v>
+        <f t="shared" si="4"/>
+        <v>54071393.428084053</v>
       </c>
       <c r="C69">
-        <v>1.01</v>
+        <v>1.004</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
-        <v>342689680.1019336</v>
+        <f t="shared" si="3"/>
+        <v>298313968.38442236</v>
       </c>
       <c r="E69">
         <v>1400</v>
@@ -2288,18 +2288,18 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>589.800000000002</v>
+        <v>589.00000000000102</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
-        <v>57970988.2816533</v>
+        <f t="shared" si="4"/>
+        <v>54287679.001796387</v>
       </c>
       <c r="C70">
-        <v>1.02</v>
+        <v>1.004</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
-        <v>348486778.93010026</v>
+        <f t="shared" si="3"/>
+        <v>303742736.28460324</v>
       </c>
       <c r="E70">
         <v>1400</v>
@@ -2307,18 +2307,18 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>589.90000000000202</v>
+        <v>589.10000000000105</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
-        <v>59710117.9301029</v>
+        <f t="shared" si="4"/>
+        <v>54613405.075807169</v>
       </c>
       <c r="C71">
-        <v>1.03</v>
+        <v>1.006</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
-        <v>354457790.72311193</v>
+        <f t="shared" si="3"/>
+        <v>309204076.79218519</v>
       </c>
       <c r="E71">
         <v>1400</v>
@@ -2326,20 +2326,172 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>589.20000000000095</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>54941085.506262012</v>
+      </c>
+      <c r="C72">
+        <v>1.006</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>314698185.3428064</v>
+      </c>
+      <c r="E72">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>589.30000000000098</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>55270732.019299582</v>
+      </c>
+      <c r="C73">
+        <v>1.006</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>320225258.54473764</v>
+      </c>
+      <c r="E73">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>589.400000000001</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>55602356.411415376</v>
+      </c>
+      <c r="C74">
+        <v>1.006</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>325785494.18588042</v>
+      </c>
+      <c r="E74">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>589.50000000000102</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B80" si="5">B74*C75</f>
+        <v>55935970.549883865</v>
+      </c>
+      <c r="C75">
+        <v>1.006</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>331379091.24087006</v>
+      </c>
+      <c r="E75">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>589.60000000000196</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>56271586.373183168</v>
+      </c>
+      <c r="C76">
+        <v>1.006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:D80" si="6">D75+B76*(A76-A75)</f>
+        <v>337006249.87824082</v>
+      </c>
+      <c r="E76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>589.70000000000198</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>56834302.236915</v>
+      </c>
+      <c r="C77">
+        <v>1.01</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>342689680.1019336</v>
+      </c>
+      <c r="E77">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>589.800000000002</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>57970988.2816533</v>
+      </c>
+      <c r="C78">
+        <v>1.02</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>348486778.93010026</v>
+      </c>
+      <c r="E78">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>589.90000000000202</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>59710117.9301029</v>
+      </c>
+      <c r="C79">
+        <v>1.03</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>354457790.72311193</v>
+      </c>
+      <c r="E79">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>590.00000000000205</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="3"/>
+      <c r="B80">
+        <f t="shared" si="5"/>
         <v>62098522.647307016</v>
       </c>
-      <c r="C72">
+      <c r="C80">
         <v>1.04</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="4"/>
+      <c r="D80">
+        <f t="shared" si="6"/>
         <v>360667642.98784405</v>
       </c>
-      <c r="E72">
+      <c r="E80">
         <v>1400</v>
       </c>
     </row>

--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -361,7 +361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -969,7 +969,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D2:D9"/>
+      <selection activeCell="A2" sqref="A2:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>582.20000000000005</v>
+        <v>557.20000000000005</v>
       </c>
       <c r="B2">
         <f>lakearea!$A$2</f>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D8" si="0">D3-(A3-A2)*B2</f>
-        <v>-38639999.999997802</v>
+        <v>-38639999.999948382</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>582.29999999999995</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="B3">
         <f>lakearea!$A$2</f>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>-33810000.000002198</v>
+        <v>-33809999.999952778</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>582.4</v>
+        <v>557.4</v>
       </c>
       <c r="B4">
         <f>lakearea!$A$2</f>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>-28980000.000001099</v>
+        <v>-28979999.999951679</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>582.5</v>
+        <v>557.5</v>
       </c>
       <c r="B5">
         <f>lakearea!$A$2</f>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-24150000</v>
+        <v>-24149999.99995058</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>582.6</v>
+        <v>557.6</v>
       </c>
       <c r="B6">
         <f>lakearea!$A$2</f>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-19319999.999998901</v>
+        <v>-19319999.999949481</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>582.70000000000005</v>
+        <v>557.70000000000005</v>
       </c>
       <c r="B7">
         <f>lakearea!$A$2</f>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-14489999.999997802</v>
+        <v>-14489999.999948382</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>582.79999999999995</v>
+        <v>557.79999999999905</v>
       </c>
       <c r="B8">
         <f>lakearea!$A$2</f>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-9660000.0000021961</v>
+        <v>-9659999.999996705</v>
       </c>
       <c r="E8">
         <v>160</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>582.9</v>
+        <v>557.89999999999895</v>
       </c>
       <c r="B9">
         <f>lakearea!$A$2</f>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>583</v>
+        <v>557.99999999999898</v>
       </c>
       <c r="B10">
         <f>lakearea!A2</f>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>583.1</v>
+        <v>558.099999999999</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B42" si="1">B10*C11</f>
@@ -1177,7 +1177,7 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D3:D12" si="2">D10+B11*(A11-A10)</f>
+        <f t="shared" ref="D11:D12" si="2">D10+B11*(A11-A10)</f>
         <v>4834830.000001099</v>
       </c>
       <c r="E11">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>583.20000000000005</v>
+        <v>558.19999999999902</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>583.29999999999995</v>
+        <v>558.29999999999905</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D75" si="3">D12+B13*(A13-A12)</f>
-        <v>14518999.32482779</v>
+        <v>14518999.324833298</v>
       </c>
       <c r="E13">
         <v>230</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>583.4</v>
+        <v>558.39999999999895</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>19368348.324153721</v>
+        <v>19368348.324153714</v>
       </c>
       <c r="E14">
         <v>240</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>583.5</v>
+        <v>558.49999999999898</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>24222546.672478978</v>
+        <v>24222546.67247897</v>
       </c>
       <c r="E15">
         <v>250</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>583.6</v>
+        <v>558.599999999999</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>29081599.219152559</v>
+        <v>29081599.219152551</v>
       </c>
       <c r="E16">
         <v>260</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>583.70000000000005</v>
+        <v>558.69999999999902</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>33945510.818372808</v>
+        <v>33945510.818372801</v>
       </c>
       <c r="E17">
         <v>270</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>583.79999999999995</v>
+        <v>558.79999999999905</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>38814286.329186745</v>
+        <v>38814286.329192273</v>
       </c>
       <c r="E18">
         <v>280</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>583.9</v>
+        <v>558.89999999999804</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>43687930.615517035</v>
+        <v>43687930.615472697</v>
       </c>
       <c r="E19">
         <v>290</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>584</v>
+        <v>558.99999999999795</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>48566448.54613366</v>
+        <v>48566448.546083771</v>
       </c>
       <c r="E20">
         <v>300</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>584.1</v>
+        <v>559.09999999999798</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>53449844.994680896</v>
+        <v>53449844.994631007</v>
       </c>
       <c r="E21">
         <v>320</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>584.20000000000005</v>
+        <v>559.199999999998</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>58338124.839676678</v>
+        <v>58338124.839626789</v>
       </c>
       <c r="E22">
         <v>340</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>584.29999999999995</v>
+        <v>559.29999999999802</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>63231292.964511894</v>
+        <v>63231292.96446757</v>
       </c>
       <c r="E23">
         <v>360</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>584.4</v>
+        <v>559.39999999999804</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>68129354.257477507</v>
+        <v>68129354.257433191</v>
       </c>
       <c r="E24">
         <v>380</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>584.5</v>
+        <v>559.49999999999795</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>73032313.611736089</v>
+        <v>73032313.6116862</v>
       </c>
       <c r="E25">
         <v>400</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>584.6</v>
+        <v>559.59999999999798</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>77940175.925348938</v>
+        <v>77940175.925299048</v>
       </c>
       <c r="E26">
         <v>420</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>584.70000000000005</v>
+        <v>559.699999999998</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>82852946.101275399</v>
+        <v>82852946.10122551</v>
       </c>
       <c r="E27">
         <v>440</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>584.79999999999995</v>
+        <v>559.79999999999802</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>87770629.047372192</v>
+        <v>87770629.047327891</v>
       </c>
       <c r="E28">
         <v>460</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>584.9</v>
+        <v>559.89999999999804</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>92693229.676420674</v>
+        <v>92693229.676376373</v>
       </c>
       <c r="E29">
         <v>480</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>585</v>
+        <v>559.99999999999704</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>97625675.506727248</v>
+        <v>97625675.506632477</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>585.1</v>
+        <v>560.09999999999695</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>102567986.22869444</v>
+        <v>102567986.22859405</v>
       </c>
       <c r="E31">
         <v>520</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>585.20000000000095</v>
+        <v>560.19999999999698</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>107520181.5721506</v>
+        <v>107520181.57200518</v>
       </c>
       <c r="E32">
         <v>540</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>585.30000000000098</v>
+        <v>560.299999999997</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>112482281.30624855</v>
+        <v>112482281.30610313</v>
       </c>
       <c r="E33">
         <v>560</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>585.400000000001</v>
+        <v>560.39999999999702</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>117454305.2398147</v>
+        <v>117454305.23966926</v>
       </c>
       <c r="E34">
         <v>580</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>585.50000000000102</v>
+        <v>560.49999999999704</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>122436273.22124797</v>
+        <v>122436273.22110254</v>
       </c>
       <c r="E35">
         <v>600</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>585.60000000000105</v>
+        <v>560.59999999999695</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>127428205.13864411</v>
+        <v>127428205.138493</v>
       </c>
       <c r="E36">
         <v>620</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>585.70000000000095</v>
+        <v>560.69999999999698</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>132430120.91986936</v>
+        <v>132430120.91972394</v>
       </c>
       <c r="E37">
         <v>640</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>585.80000000000098</v>
+        <v>560.799999999997</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>137442040.53266275</v>
+        <v>137442040.53251734</v>
       </c>
       <c r="E38">
         <v>660</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>585.900000000001</v>
+        <v>560.89999999999702</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>142463983.98468173</v>
+        <v>142463983.98453632</v>
       </c>
       <c r="E39">
         <v>680</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>586.00000000000102</v>
+        <v>560.99999999999704</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>147495971.32360476</v>
+        <v>147495971.32345936</v>
       </c>
       <c r="E40">
         <v>700</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>586.10000000000105</v>
+        <v>561.09999999999604</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>152538022.63720563</v>
+        <v>152538022.63700864</v>
       </c>
       <c r="E41">
         <v>750</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>586.20000000000095</v>
+        <v>561.19999999999595</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>157590158.05342796</v>
+        <v>157590158.05323097</v>
       </c>
       <c r="E42">
         <v>800</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>586.30000000000098</v>
+        <v>561.29999999999598</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43:B74" si="4">B42*C43</f>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>162652397.7404885</v>
+        <v>162652397.74029151</v>
       </c>
       <c r="E43">
         <v>850</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>586.400000000001</v>
+        <v>561.399999999996</v>
       </c>
       <c r="B44">
         <f t="shared" si="4"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>167724761.90692315</v>
+        <v>167724761.90672615</v>
       </c>
       <c r="E44">
         <v>900</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>586.50000000000102</v>
+        <v>561.49999999999602</v>
       </c>
       <c r="B45">
         <f t="shared" si="4"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>172807270.80169067</v>
+        <v>172807270.80149367</v>
       </c>
       <c r="E45">
         <v>950</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>586.60000000000105</v>
+        <v>561.59999999999604</v>
       </c>
       <c r="B46">
         <f t="shared" si="4"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>177899944.71424773</v>
+        <v>177899944.71405074</v>
       </c>
       <c r="E46">
         <v>1000</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>586.70000000000095</v>
+        <v>561.69999999999595</v>
       </c>
       <c r="B47">
         <f t="shared" si="4"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>183002803.9746241</v>
+        <v>183002803.9744271</v>
       </c>
       <c r="E47">
         <v>1050</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>586.80000000000098</v>
+        <v>561.79999999999598</v>
       </c>
       <c r="B48">
         <f t="shared" si="4"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>188115868.95352703</v>
+        <v>188115868.95333004</v>
       </c>
       <c r="E48">
         <v>1100</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>586.900000000001</v>
+        <v>561.899999999996</v>
       </c>
       <c r="B49">
         <f t="shared" si="4"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>193239160.06238776</v>
+        <v>193239160.06219077</v>
       </c>
       <c r="E49">
         <v>1150</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>587.00000000000102</v>
+        <v>561.99999999999602</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>198372697.75346622</v>
+        <v>198372697.75326923</v>
       </c>
       <c r="E50">
         <v>1200</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>587.10000000000105</v>
+        <v>562.09999999999604</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>203516502.51992685</v>
+        <v>203516502.51972985</v>
       </c>
       <c r="E51">
         <v>1250</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>587.20000000000095</v>
+        <v>562.19999999999504</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>208670594.89591452</v>
+        <v>208670594.89567065</v>
       </c>
       <c r="E52">
         <v>1300</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>587.30000000000098</v>
+        <v>562.29999999999495</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>213834995.45666003</v>
+        <v>213834995.45641029</v>
       </c>
       <c r="E53">
         <v>1350</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>587.400000000001</v>
+        <v>562.39999999999498</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>219009724.81852704</v>
+        <v>219009724.8182773</v>
       </c>
       <c r="E54">
         <v>1400</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>587.50000000000102</v>
+        <v>562.499999999995</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>224194803.63911778</v>
+        <v>224194803.63886803</v>
       </c>
       <c r="E55">
         <v>1400</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>587.60000000000105</v>
+        <v>562.59999999999502</v>
       </c>
       <c r="B56">
         <f t="shared" si="4"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>229390252.61734971</v>
+        <v>229390252.61709997</v>
       </c>
       <c r="E56">
         <v>1400</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>587.70000000000095</v>
+        <v>562.69999999999504</v>
       </c>
       <c r="B57">
         <f t="shared" si="4"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>234596092.49353218</v>
+        <v>234596092.49328837</v>
       </c>
       <c r="E57">
         <v>1400</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>587.80000000000098</v>
+        <v>562.79999999999495</v>
       </c>
       <c r="B58">
         <f t="shared" si="4"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>239817549.88934913</v>
+        <v>239817549.88909939</v>
       </c>
       <c r="E58">
         <v>1400</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>587.900000000001</v>
+        <v>562.89999999999498</v>
       </c>
       <c r="B59">
         <f t="shared" si="4"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>245054671.65735355</v>
+        <v>245054671.65710381</v>
       </c>
       <c r="E59">
         <v>1400</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>588.00000000000102</v>
+        <v>562.999999999995</v>
       </c>
       <c r="B60">
         <f t="shared" si="4"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>250307504.79066196</v>
+        <v>250307504.79041222</v>
       </c>
       <c r="E60">
         <v>1400</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>588.10000000000105</v>
+        <v>563.09999999999502</v>
       </c>
       <c r="B61">
         <f t="shared" si="4"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>255576096.4233703</v>
+        <v>255576096.42312056</v>
       </c>
       <c r="E61">
         <v>1400</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>588.20000000000095</v>
+        <v>563.19999999999504</v>
       </c>
       <c r="B62">
         <f t="shared" si="4"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>260860493.83097076</v>
+        <v>260860493.83072704</v>
       </c>
       <c r="E62">
         <v>1400</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>588.30000000000098</v>
+        <v>563.29999999999404</v>
       </c>
       <c r="B63">
         <f t="shared" si="4"/>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>266160744.43080005</v>
+        <v>266160744.43050209</v>
       </c>
       <c r="E63">
         <v>1400</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>588.400000000001</v>
+        <v>563.39999999999395</v>
       </c>
       <c r="B64">
         <f t="shared" si="4"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>271476895.7824288</v>
+        <v>271476895.78212482</v>
       </c>
       <c r="E64">
         <v>1400</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>588.50000000000102</v>
+        <v>563.49999999999397</v>
       </c>
       <c r="B65">
         <f t="shared" si="4"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>276808995.58811247</v>
+        <v>276808995.58780849</v>
       </c>
       <c r="E65">
         <v>1400</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>588.60000000000105</v>
+        <v>563.599999999994</v>
       </c>
       <c r="B66">
         <f t="shared" si="4"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>282157091.69321316</v>
+        <v>282157091.69290918</v>
       </c>
       <c r="E66">
         <v>1400</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>588.70000000000095</v>
+        <v>563.69999999999402</v>
       </c>
       <c r="B67">
         <f t="shared" si="4"/>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>287521232.08662307</v>
+        <v>287521232.08632517</v>
       </c>
       <c r="E67">
         <v>1400</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>588.80000000000098</v>
+        <v>563.79999999999404</v>
       </c>
       <c r="B68">
         <f t="shared" si="4"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>292906829.04161274</v>
+        <v>292906829.04131484</v>
       </c>
       <c r="E68">
         <v>1400</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>588.900000000001</v>
+        <v>563.89999999999395</v>
       </c>
       <c r="B69">
         <f t="shared" si="4"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>298313968.38442236</v>
+        <v>298313968.38411832</v>
       </c>
       <c r="E69">
         <v>1400</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>589.00000000000102</v>
+        <v>563.99999999999397</v>
       </c>
       <c r="B70">
         <f t="shared" si="4"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>303742736.28460324</v>
+        <v>303742736.28429919</v>
       </c>
       <c r="E70">
         <v>1400</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>589.10000000000105</v>
+        <v>564.099999999994</v>
       </c>
       <c r="B71">
         <f t="shared" si="4"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>309204076.79218519</v>
+        <v>309204076.79188114</v>
       </c>
       <c r="E71">
         <v>1400</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>589.20000000000095</v>
+        <v>564.19999999999402</v>
       </c>
       <c r="B72">
         <f t="shared" si="4"/>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>314698185.3428064</v>
+        <v>314698185.34250861</v>
       </c>
       <c r="E72">
         <v>1400</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>589.30000000000098</v>
+        <v>564.29999999999404</v>
       </c>
       <c r="B73">
         <f t="shared" si="4"/>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>320225258.54473764</v>
+        <v>320225258.54443985</v>
       </c>
       <c r="E73">
         <v>1400</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>589.400000000001</v>
+        <v>564.39999999999304</v>
       </c>
       <c r="B74">
         <f t="shared" si="4"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>325785494.18588042</v>
+        <v>325785494.18552577</v>
       </c>
       <c r="E74">
         <v>1400</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>589.50000000000102</v>
+        <v>564.49999999999295</v>
       </c>
       <c r="B75">
         <f t="shared" ref="B75:B80" si="5">B74*C75</f>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>331379091.24087006</v>
+        <v>331379091.24050909</v>
       </c>
       <c r="E75">
         <v>1400</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>589.60000000000196</v>
+        <v>564.59999999999297</v>
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D80" si="6">D75+B76*(A76-A75)</f>
-        <v>337006249.87824082</v>
+        <v>337006249.87782872</v>
       </c>
       <c r="E76">
         <v>1400</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>589.70000000000198</v>
+        <v>564.699999999993</v>
       </c>
       <c r="B77">
         <f t="shared" si="5"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>342689680.1019336</v>
+        <v>342689680.10152149</v>
       </c>
       <c r="E77">
         <v>1400</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>589.800000000002</v>
+        <v>564.79999999999302</v>
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>348486778.93010026</v>
+        <v>348486778.92968816</v>
       </c>
       <c r="E78">
         <v>1400</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>589.90000000000202</v>
+        <v>564.89999999999304</v>
       </c>
       <c r="B79">
         <f t="shared" si="5"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>354457790.72311193</v>
+        <v>354457790.72269982</v>
       </c>
       <c r="E79">
         <v>1400</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>590.00000000000205</v>
+        <v>564.99999999999295</v>
       </c>
       <c r="B80">
         <f t="shared" si="5"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>360667642.98784405</v>
+        <v>360667642.98742485</v>
       </c>
       <c r="E80">
         <v>1400</v>
